--- a/linear_regression/test.xlsx
+++ b/linear_regression/test.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\regression_models\linear_regression\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="8415"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="121">
   <si>
     <t>parameters</t>
   </si>
@@ -383,23 +387,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -414,26 +419,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -721,20 +743,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,711 +764,711 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>-0.05398656413004457</v>
+      <c r="B2">
+        <v>-5.3986564130044573E-2</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v>-0.05398088494349355</v>
+      <c r="B3">
+        <v>-5.3980884943493547E-2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>-0.05393514039648074</v>
+      <c r="B4">
+        <v>-5.3935140396480737E-2</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
-        <v>-0.05389718530950395</v>
+      <c r="B5">
+        <v>-5.389718530950395E-2</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
-        <v>-0.05398736793048468</v>
+      <c r="B6">
+        <v>-5.3987367930484677E-2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="n">
-        <v>-0.0539870761515175</v>
+      <c r="B7">
+        <v>-5.3987076151517502E-2</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="n">
-        <v>-0.05398707609910314</v>
+      <c r="B8">
+        <v>-5.3987076099103137E-2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="n">
-        <v>-0.05398707609910314</v>
+      <c r="B9">
+        <v>-5.3987076099103137E-2</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="n">
-        <v>-0.05398074008216406</v>
+      <c r="B10">
+        <v>-5.398074008216406E-2</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="n">
-        <v>-0.05392186354978388</v>
+      <c r="B11">
+        <v>-5.3921863549783879E-2</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="n">
-        <v>-0.05344560609572185</v>
+      <c r="B12">
+        <v>-5.3445606095721847E-2</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="n">
-        <v>-0.0530900503115183</v>
+      <c r="B13">
+        <v>-5.3090050311518297E-2</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="n">
-        <v>-0.05399426348667921</v>
+      <c r="B14">
+        <v>-5.3994263486679211E-2</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="n">
-        <v>-0.05398616559331057</v>
+      <c r="B15">
+        <v>-5.398616559331057E-2</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="n">
-        <v>-0.05398616451789831</v>
+      <c r="B16">
+        <v>-5.3986164517898311E-2</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="n">
-        <v>-0.05398616451789831</v>
+      <c r="B17">
+        <v>-5.3986164517898311E-2</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="n">
-        <v>-0.0539203248381676</v>
+      <c r="B18">
+        <v>-5.3920324838167603E-2</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="n">
-        <v>-0.05331314564788338</v>
+      <c r="B19">
+        <v>-5.3313145647883378E-2</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="n">
-        <v>-0.04945828965881194</v>
+      <c r="B20">
+        <v>-4.9458289658811938E-2</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="n">
-        <v>-0.04584663729202291</v>
+      <c r="B21">
+        <v>-4.5846637292022908E-2</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="n">
-        <v>-0.05402304319794386</v>
+      <c r="B22">
+        <v>-5.4023043197943862E-2</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="n">
-        <v>-0.05402545850887516</v>
+      <c r="B23">
+        <v>-5.4025458508875163E-2</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="n">
-        <v>-0.05402545989121929</v>
+      <c r="B24">
+        <v>-5.4025459891219291E-2</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" t="n">
-        <v>-0.05402545989121929</v>
+      <c r="B25">
+        <v>-5.4025459891219291E-2</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="n">
-        <v>-0.05329779645474545</v>
+      <c r="B26">
+        <v>-5.3297796454745451E-2</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="n">
-        <v>-0.04837443635586233</v>
+      <c r="B27">
+        <v>-4.8374436355862332E-2</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" t="n">
-        <v>-0.007249549784455176</v>
+      <c r="B28">
+        <v>-7.2495497844551763E-3</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B29" t="n">
-        <v>0.007444975727527341</v>
+      <c r="B29">
+        <v>7.4449757275273408E-3</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="n">
-        <v>-0.05410421460051622</v>
+      <c r="B30">
+        <v>-5.4104214600516218E-2</v>
       </c>
       <c r="C30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="n">
-        <v>-0.05401199871893977</v>
+      <c r="B31">
+        <v>-5.4011998718939767E-2</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="n">
-        <v>-0.05401196736438817</v>
+      <c r="B32">
+        <v>-5.4011967364388173E-2</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="n">
-        <v>-0.05401196736438817</v>
+      <c r="B33">
+        <v>-5.4011967364388173E-2</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
-      <c r="B34" t="n">
-        <v>-0.04822852030706094</v>
+      <c r="B34">
+        <v>-4.8228520307060943E-2</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
-      <c r="B35" t="n">
-        <v>0.002864965296413165</v>
+      <c r="B35">
+        <v>2.864965296413165E-3</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
-      <c r="B36" t="n">
-        <v>0.1618769546958448</v>
+      <c r="B36">
+        <v>0.16187695469584479</v>
       </c>
       <c r="C36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.1756124839301042</v>
       </c>
       <c r="C37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
-      <c r="B38" t="n">
-        <v>-0.04714194219319012</v>
+      <c r="B38">
+        <v>-4.7141942193190123E-2</v>
       </c>
       <c r="C38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" t="n">
-        <v>-0.05164581182882808</v>
+      <c r="B39">
+        <v>-5.1645811828828082E-2</v>
       </c>
       <c r="C39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="n">
-        <v>-0.05164635398109861</v>
+      <c r="B40">
+        <v>-5.1646353981098611E-2</v>
       </c>
       <c r="C40" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
-      <c r="B41" t="n">
-        <v>-0.05164635398109861</v>
+      <c r="B41">
+        <v>-5.1646353981098611E-2</v>
       </c>
       <c r="C41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="n">
-        <v>0.004117140421798144</v>
+      <c r="B42">
+        <v>4.1171404217981442E-3</v>
       </c>
       <c r="C42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="n">
-        <v>0.1768845141958403</v>
+      <c r="B43">
+        <v>0.17688451419584031</v>
       </c>
       <c r="C43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>81</v>
       </c>
-      <c r="B44" t="n">
-        <v>0.2577462879630795</v>
+      <c r="B44">
+        <v>0.25774628796307952</v>
       </c>
       <c r="C44" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.2310457155635566</v>
       </c>
       <c r="C45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="n">
-        <v>-0.01436093826640655</v>
+      <c r="B46">
+        <v>-1.436093826640655E-2</v>
       </c>
       <c r="C46" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="n">
-        <v>-0.03244656553232286</v>
+      <c r="B47">
+        <v>-3.2446565532322863E-2</v>
       </c>
       <c r="C47" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="n">
-        <v>-0.03244789413060095</v>
+      <c r="B48">
+        <v>-3.2447894130600952E-2</v>
       </c>
       <c r="C48" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
-      <c r="B49" t="n">
-        <v>-0.03244789413060095</v>
+      <c r="B49">
+        <v>-3.2447894130600952E-2</v>
       </c>
       <c r="C49" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="B50" t="n">
-        <v>0.1781246477999615</v>
+      <c r="B50">
+        <v>0.17812464779996151</v>
       </c>
       <c r="C50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
-      <c r="B51" t="n">
-        <v>0.2674586006719754</v>
+      <c r="B51">
+        <v>0.26745860067197541</v>
       </c>
       <c r="C51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>96</v>
       </c>
-      <c r="B52" t="n">
-        <v>0.287128769016916</v>
+      <c r="B52">
+        <v>0.28712876901691597</v>
       </c>
       <c r="C52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>98</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>0.1947912323895557</v>
       </c>
       <c r="C53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>100</v>
       </c>
-      <c r="B54" t="n">
-        <v>0.005151004913893072</v>
+      <c r="B54">
+        <v>5.1510049138930722E-3</v>
       </c>
       <c r="C54" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>102</v>
       </c>
-      <c r="B55" t="n">
-        <v>-0.00620766962326186</v>
+      <c r="B55">
+        <v>-6.2076696232618604E-3</v>
       </c>
       <c r="C55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>104</v>
       </c>
-      <c r="B56" t="n">
-        <v>-0.006208490722033868</v>
+      <c r="B56">
+        <v>-6.2084907220338681E-3</v>
       </c>
       <c r="C56" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>106</v>
       </c>
-      <c r="B57" t="n">
-        <v>-0.006208490722033868</v>
+      <c r="B57">
+        <v>-6.2084907220338681E-3</v>
       </c>
       <c r="C57" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>107</v>
       </c>
-      <c r="B58" t="n">
-        <v>0.2681065744129191</v>
+      <c r="B58">
+        <v>0.26810657441291907</v>
       </c>
       <c r="C58" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>109</v>
       </c>
-      <c r="B59" t="n">
-        <v>0.257427416533841</v>
+      <c r="B59">
+        <v>0.25742741653384099</v>
       </c>
       <c r="C59" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>111</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>0.1762909792124937</v>
       </c>
       <c r="C60" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>113</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>0.1370393548660708</v>
       </c>
       <c r="C61" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>115</v>
       </c>
-      <c r="B62" t="n">
-        <v>0.005151004913893005</v>
+      <c r="B62">
+        <v>5.1510049138930054E-3</v>
       </c>
       <c r="C62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>116</v>
       </c>
-      <c r="B63" t="n">
-        <v>-0.006299808827400901</v>
+      <c r="B63">
+        <v>-6.2998088274009009E-3</v>
       </c>
       <c r="C63" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>118</v>
       </c>
-      <c r="B64" t="n">
-        <v>-0.00630065940480844</v>
+      <c r="B64">
+        <v>-6.3006594048084404E-3</v>
       </c>
       <c r="C64" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>120</v>
       </c>
-      <c r="B65" t="n">
-        <v>-0.00630065940480844</v>
+      <c r="B65">
+        <v>-6.3006594048084404E-3</v>
       </c>
       <c r="C65" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>